--- a/Documentation/LL_table.xlsx
+++ b/Documentation/LL_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\2BIT\IFJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFC44CAB-3EAB-4C27-BE9A-131D3951A427}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6B9C70-42F6-403B-AE2E-17A66495BEA2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="15336" windowHeight="8040" xr2:uid="{9591F3E3-4E73-4B29-B890-6F538429FC0A}"/>
+    <workbookView xWindow="3948" yWindow="600" windowWidth="16980" windowHeight="9084" xr2:uid="{9591F3E3-4E73-4B29-B890-6F538429FC0A}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>&lt;prog&gt;</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>KEYWORD_INPUTS</t>
+  </si>
+  <si>
+    <t>KEYWORD_INPUTI</t>
+  </si>
+  <si>
+    <t>KEYWORD_INPUTF</t>
+  </si>
+  <si>
+    <t>TYPE_EOF</t>
   </si>
 </sst>
 </file>
@@ -434,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7556468A-0074-43CF-BFAC-753A4B2338A3}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,9 +463,13 @@
     <col min="8" max="8" width="16.21875" customWidth="1"/>
     <col min="9" max="10" width="15.44140625" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" customWidth="1"/>
+    <col min="16" max="16" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -487,8 +503,20 @@
       <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -502,7 +530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -527,8 +555,20 @@
       <c r="J3">
         <v>10</v>
       </c>
+      <c r="M3">
+        <v>15</v>
+      </c>
+      <c r="N3">
+        <v>16</v>
+      </c>
+      <c r="O3">
+        <v>17</v>
+      </c>
+      <c r="P3">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -539,7 +579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
